--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H2">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I2">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J2">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N2">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O2">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P2">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q2">
-        <v>409.1619323745881</v>
+        <v>557.7720018656646</v>
       </c>
       <c r="R2">
-        <v>3682.457391371293</v>
+        <v>5019.948016790981</v>
       </c>
       <c r="S2">
-        <v>0.01815791044237723</v>
+        <v>0.01960918489064434</v>
       </c>
       <c r="T2">
-        <v>0.01815791044237724</v>
+        <v>0.01960918489064434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H3">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I3">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J3">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q3">
-        <v>76.84190402682044</v>
+        <v>78.53435199776088</v>
       </c>
       <c r="R3">
-        <v>691.577136241384</v>
+        <v>706.809167979848</v>
       </c>
       <c r="S3">
-        <v>0.003410112967849033</v>
+        <v>0.002760975135790221</v>
       </c>
       <c r="T3">
-        <v>0.003410112967849034</v>
+        <v>0.002760975135790222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H4">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I4">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J4">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N4">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O4">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P4">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q4">
-        <v>22.75810817253656</v>
+        <v>16.77329215503022</v>
       </c>
       <c r="R4">
-        <v>204.822973552829</v>
+        <v>150.959629395272</v>
       </c>
       <c r="S4">
-        <v>0.001009966121815386</v>
+        <v>0.0005896864417586842</v>
       </c>
       <c r="T4">
-        <v>0.001009966121815387</v>
+        <v>0.0005896864417586843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H5">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I5">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J5">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N5">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q5">
-        <v>1.662430622376778</v>
+        <v>3.289018426296333</v>
       </c>
       <c r="R5">
-        <v>14.961875601391</v>
+        <v>29.601165836667</v>
       </c>
       <c r="S5">
-        <v>7.377584269043735E-05</v>
+        <v>0.0001156296304121662</v>
       </c>
       <c r="T5">
-        <v>7.377584269043737E-05</v>
+        <v>0.0001156296304121662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I6">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J6">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N6">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O6">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P6">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q6">
-        <v>17545.24572557546</v>
+        <v>23402.34606828563</v>
       </c>
       <c r="R6">
-        <v>157907.2115301792</v>
+        <v>210621.1146145707</v>
       </c>
       <c r="S6">
-        <v>0.7786281551794909</v>
+        <v>0.8227392723064283</v>
       </c>
       <c r="T6">
-        <v>0.7786281551794912</v>
+        <v>0.8227392723064284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J7">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q7">
         <v>3295.052597750866</v>
@@ -886,10 +886,10 @@
         <v>29655.4733797578</v>
       </c>
       <c r="S7">
-        <v>0.1462288283410176</v>
+        <v>0.1158417693924629</v>
       </c>
       <c r="T7">
-        <v>0.1462288283410176</v>
+        <v>0.1158417693924629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J8">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N8">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O8">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P8">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q8">
-        <v>975.8889294002662</v>
+        <v>703.7541977788568</v>
       </c>
       <c r="R8">
-        <v>8783.000364602398</v>
+        <v>6333.787780009711</v>
       </c>
       <c r="S8">
-        <v>0.0433082903849781</v>
+        <v>0.02474137485505472</v>
       </c>
       <c r="T8">
-        <v>0.04330829038497812</v>
+        <v>0.02474137485505472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J9">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N9">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q9">
-        <v>71.2865774243602</v>
+        <v>137.9967929184313</v>
       </c>
       <c r="R9">
-        <v>641.5791968192419</v>
+        <v>1241.971136265882</v>
       </c>
       <c r="S9">
-        <v>0.003163577024634063</v>
+        <v>0.004851452954974964</v>
       </c>
       <c r="T9">
-        <v>0.003163577024634065</v>
+        <v>0.004851452954974965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H10">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I10">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J10">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N10">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O10">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P10">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q10">
-        <v>0.6104742821342222</v>
+        <v>11.16698709320711</v>
       </c>
       <c r="R10">
-        <v>5.494268539208001</v>
+        <v>100.502883838864</v>
       </c>
       <c r="S10">
-        <v>2.709181002747702E-05</v>
+        <v>0.0003925896492647473</v>
       </c>
       <c r="T10">
-        <v>2.709181002747702E-05</v>
+        <v>0.0003925896492647474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H11">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I11">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J11">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q11">
-        <v>0.1146489995448889</v>
+        <v>1.572312866545778</v>
       </c>
       <c r="R11">
-        <v>1.031840995904</v>
+        <v>14.150815798912</v>
       </c>
       <c r="S11">
-        <v>5.087927544878156E-06</v>
+        <v>5.527666071962638E-05</v>
       </c>
       <c r="T11">
-        <v>5.087927544878158E-06</v>
+        <v>5.52766607196264E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H12">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N12">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O12">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P12">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q12">
-        <v>0.03395535764711111</v>
+        <v>0.3358130855964445</v>
       </c>
       <c r="R12">
-        <v>0.305598218824</v>
+        <v>3.022317770368</v>
       </c>
       <c r="S12">
-        <v>1.506881003364391E-06</v>
+        <v>1.180593658723015E-05</v>
       </c>
       <c r="T12">
-        <v>1.506881003364392E-06</v>
+        <v>1.180593658723015E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H13">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N13">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q13">
-        <v>0.002480365499555555</v>
+        <v>0.06584845813866667</v>
       </c>
       <c r="R13">
-        <v>0.022323289496</v>
+        <v>0.5926361232480001</v>
       </c>
       <c r="S13">
-        <v>1.100744009686108E-07</v>
+        <v>2.314986385272084E-06</v>
       </c>
       <c r="T13">
-        <v>1.100744009686109E-07</v>
+        <v>2.314986385272084E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H14">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I14">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J14">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N14">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O14">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P14">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q14">
-        <v>106.9647580815866</v>
+        <v>188.7879838169976</v>
       </c>
       <c r="R14">
-        <v>962.6828227342789</v>
+        <v>1699.091854352978</v>
       </c>
       <c r="S14">
-        <v>0.004746913982109796</v>
+        <v>0.006637081939245621</v>
       </c>
       <c r="T14">
-        <v>0.004746913982109797</v>
+        <v>0.006637081939245622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H15">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I15">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J15">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.562536</v>
       </c>
       <c r="O15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q15">
-        <v>20.08831962215022</v>
+        <v>26.58136644442489</v>
       </c>
       <c r="R15">
-        <v>180.794876599352</v>
+        <v>239.232297999824</v>
       </c>
       <c r="S15">
-        <v>0.0008914854481206063</v>
+        <v>0.0009345017812138832</v>
       </c>
       <c r="T15">
-        <v>0.0008914854481206067</v>
+        <v>0.0009345017812138834</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H16">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I16">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J16">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N16">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O16">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P16">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q16">
-        <v>5.949516175520777</v>
+        <v>5.677222946526222</v>
       </c>
       <c r="R16">
-        <v>53.545645579687</v>
+        <v>51.09500651873601</v>
       </c>
       <c r="S16">
-        <v>0.0002640294058238015</v>
+        <v>0.0001995900010245644</v>
       </c>
       <c r="T16">
-        <v>0.0002640294058238017</v>
+        <v>0.0001995900010245645</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H17">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I17">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J17">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N17">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q17">
-        <v>0.4345992998858889</v>
+        <v>1.113227547027333</v>
       </c>
       <c r="R17">
-        <v>3.911393698972999</v>
+        <v>10.019047923246</v>
       </c>
       <c r="S17">
-        <v>1.928677753536274E-05</v>
+        <v>3.913693179650656E-05</v>
       </c>
       <c r="T17">
-        <v>1.928677753536275E-05</v>
+        <v>3.913693179650657E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H18">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I18">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J18">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N18">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O18">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P18">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q18">
-        <v>1.153717617272333</v>
+        <v>11.56265920359467</v>
       </c>
       <c r="R18">
-        <v>10.383458555451</v>
+        <v>104.063932832352</v>
       </c>
       <c r="S18">
-        <v>5.12000250087903E-05</v>
+        <v>0.0004065000060820651</v>
       </c>
       <c r="T18">
-        <v>5.120002500879032E-05</v>
+        <v>0.0004065000060820652</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H19">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I19">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J19">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>2.562536</v>
       </c>
       <c r="O19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q19">
-        <v>0.2166718147653333</v>
+        <v>1.628023538090666</v>
       </c>
       <c r="R19">
-        <v>1.950046332888</v>
+        <v>14.652211842816</v>
       </c>
       <c r="S19">
-        <v>9.61552651064911E-06</v>
+        <v>5.723524030958721E-05</v>
       </c>
       <c r="T19">
-        <v>9.615526510649114E-06</v>
+        <v>5.723524030958722E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H20">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I20">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J20">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N20">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O20">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P20">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q20">
-        <v>0.06417124433366665</v>
+        <v>0.3477117178026667</v>
       </c>
       <c r="R20">
-        <v>0.5775411990029999</v>
+        <v>3.129405460224</v>
       </c>
       <c r="S20">
-        <v>2.847810647545458E-06</v>
+        <v>1.222424815198628E-05</v>
       </c>
       <c r="T20">
-        <v>2.847810647545459E-06</v>
+        <v>1.222424815198629E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H21">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I21">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J21">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N21">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q21">
-        <v>0.004687570726333332</v>
+        <v>0.06818162089600001</v>
       </c>
       <c r="R21">
-        <v>0.04218813653699999</v>
+        <v>0.6136345880640001</v>
       </c>
       <c r="S21">
-        <v>2.080264137650656E-07</v>
+        <v>2.39701169262972E-06</v>
       </c>
       <c r="T21">
-        <v>2.080264137650657E-07</v>
+        <v>2.39701169262972E-06</v>
       </c>
     </row>
   </sheetData>
